--- a/data/trans_orig/IP1006-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1006-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C40E7439-4F0C-4581-B44D-A055FF748941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D5C5681-49D3-456F-BEF1-CF0466E02012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D43670B4-1DBC-4844-ACFF-EE282DD90792}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{64FC9A93-A48B-4658-9D49-0D0774AB0AEB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -106,15 +106,51 @@
     <t>0,29%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
     <t>99,5%</t>
   </si>
   <si>
-    <t>98,22%</t>
-  </si>
-  <si>
     <t>99,49%</t>
   </si>
   <si>
@@ -130,9 +166,6 @@
     <t>0,5%</t>
   </si>
   <si>
-    <t>1,78%</t>
-  </si>
-  <si>
     <t>0,51%</t>
   </si>
   <si>
@@ -145,39 +178,6 @@
     <t>1,15%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
     <t>99,22%</t>
   </si>
   <si>
@@ -253,6 +253,42 @@
     <t>1,23%</t>
   </si>
   <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
     <t>99,08%</t>
   </si>
   <si>
@@ -289,42 +325,6 @@
     <t>1,51%</t>
   </si>
   <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
     <t>99,21%</t>
   </si>
   <si>
@@ -394,6 +394,24 @@
     <t>1,25%</t>
   </si>
   <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
     <t>98,2%</t>
   </si>
   <si>
@@ -410,24 +428,6 @@
   </si>
   <si>
     <t>1,03%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
   </si>
   <si>
     <t>99,18%</t>
@@ -855,7 +855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CE07155-7D4F-49AA-A6EA-3B92AB836477}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2BFB766-4EF5-4AB3-858B-1F636BDD2DF7}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1128,10 +1128,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>420</v>
+        <v>329</v>
       </c>
       <c r="D7" s="7">
-        <v>280083</v>
+        <v>217356</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
@@ -1143,28 +1143,28 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>392</v>
+        <v>302</v>
       </c>
       <c r="I7" s="7">
-        <v>264259</v>
+        <v>204057</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="M7" s="7">
-        <v>812</v>
+        <v>631</v>
       </c>
       <c r="N7" s="7">
-        <v>544342</v>
+        <v>421413</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>27</v>
@@ -1179,10 +1179,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>1415</v>
+        <v>685</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>29</v>
@@ -1197,25 +1197,25 @@
         <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>1344</v>
+        <v>1165</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="7">
+        <v>3</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1850</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="M8" s="7">
-        <v>4</v>
-      </c>
-      <c r="N8" s="7">
-        <v>2759</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>33</v>
@@ -1230,10 +1230,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>422</v>
+        <v>330</v>
       </c>
       <c r="D9" s="7">
-        <v>281498</v>
+        <v>218041</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1245,10 +1245,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>394</v>
+        <v>304</v>
       </c>
       <c r="I9" s="7">
-        <v>265603</v>
+        <v>205222</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1260,10 +1260,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>816</v>
+        <v>634</v>
       </c>
       <c r="N9" s="7">
-        <v>547101</v>
+        <v>423263</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1283,10 +1283,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>329</v>
+        <v>420</v>
       </c>
       <c r="D10" s="7">
-        <v>217356</v>
+        <v>280083</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>36</v>
@@ -1298,28 +1298,28 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>302</v>
+        <v>392</v>
       </c>
       <c r="I10" s="7">
-        <v>204057</v>
+        <v>264259</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>631</v>
+        <v>812</v>
       </c>
       <c r="N10" s="7">
-        <v>421413</v>
+        <v>544342</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>39</v>
@@ -1334,10 +1334,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>685</v>
+        <v>1415</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>41</v>
@@ -1352,25 +1352,25 @@
         <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>1165</v>
+        <v>1344</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N11" s="7">
-        <v>1850</v>
+        <v>2759</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>44</v>
@@ -1385,10 +1385,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>330</v>
+        <v>422</v>
       </c>
       <c r="D12" s="7">
-        <v>218041</v>
+        <v>281498</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -1400,10 +1400,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>304</v>
+        <v>394</v>
       </c>
       <c r="I12" s="7">
-        <v>205222</v>
+        <v>265603</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1415,10 +1415,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>634</v>
+        <v>816</v>
       </c>
       <c r="N12" s="7">
-        <v>423263</v>
+        <v>547101</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -1601,7 +1601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FF4AA7-7D6A-44D1-88D5-69AF495B5A4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3EECA13-1CD5-42B7-97D9-F950EB81348B}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1755,13 +1755,13 @@
         <v>460189</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>66</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1806,10 +1806,10 @@
         <v>2047</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>70</v>
@@ -1874,10 +1874,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>395</v>
+        <v>330</v>
       </c>
       <c r="D7" s="7">
-        <v>267859</v>
+        <v>238754</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>71</v>
@@ -1886,13 +1886,13 @@
         <v>72</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>361</v>
+        <v>318</v>
       </c>
       <c r="I7" s="7">
-        <v>253541</v>
+        <v>227493</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>73</v>
@@ -1904,19 +1904,19 @@
         <v>11</v>
       </c>
       <c r="M7" s="7">
-        <v>756</v>
+        <v>648</v>
       </c>
       <c r="N7" s="7">
-        <v>521400</v>
+        <v>466247</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1925,16 +1925,16 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>2495</v>
+        <v>1346</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>78</v>
@@ -1943,7 +1943,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>661</v>
+        <v>685</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>79</v>
@@ -1955,16 +1955,16 @@
         <v>80</v>
       </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N8" s="7">
-        <v>3156</v>
+        <v>2031</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>82</v>
@@ -1976,10 +1976,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>398</v>
+        <v>332</v>
       </c>
       <c r="D9" s="7">
-        <v>270354</v>
+        <v>240100</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1991,10 +1991,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="I9" s="7">
-        <v>254202</v>
+        <v>228178</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -2006,10 +2006,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>760</v>
+        <v>651</v>
       </c>
       <c r="N9" s="7">
-        <v>524556</v>
+        <v>468278</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -2029,10 +2029,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>330</v>
+        <v>395</v>
       </c>
       <c r="D10" s="7">
-        <v>238754</v>
+        <v>267859</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>83</v>
@@ -2041,13 +2041,13 @@
         <v>84</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="H10" s="7">
-        <v>318</v>
+        <v>361</v>
       </c>
       <c r="I10" s="7">
-        <v>227493</v>
+        <v>253541</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>85</v>
@@ -2059,19 +2059,19 @@
         <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>648</v>
+        <v>756</v>
       </c>
       <c r="N10" s="7">
-        <v>466247</v>
+        <v>521400</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2080,16 +2080,16 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>1346</v>
+        <v>2495</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>89</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>90</v>
@@ -2098,7 +2098,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>685</v>
+        <v>661</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>91</v>
@@ -2110,16 +2110,16 @@
         <v>92</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N11" s="7">
-        <v>2031</v>
+        <v>3156</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>94</v>
@@ -2131,10 +2131,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>332</v>
+        <v>398</v>
       </c>
       <c r="D12" s="7">
-        <v>240100</v>
+        <v>270354</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -2146,10 +2146,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="I12" s="7">
-        <v>228178</v>
+        <v>254202</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2161,10 +2161,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>651</v>
+        <v>760</v>
       </c>
       <c r="N12" s="7">
-        <v>468278</v>
+        <v>524556</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -2220,13 +2220,13 @@
         <v>1447836</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>99</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2271,10 +2271,10 @@
         <v>7234</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>104</v>
@@ -2347,7 +2347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A60262-54E2-4C9D-849D-EC5CCA6A3377}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2324EF-8C6B-40E5-BB5B-26E46F825328}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2507,7 +2507,7 @@
         <v>111</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2555,7 +2555,7 @@
         <v>116</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>117</v>
@@ -2620,43 +2620,43 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="D7" s="7">
-        <v>281629</v>
+        <v>249426</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H7" s="7">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="I7" s="7">
-        <v>266233</v>
+        <v>234733</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="M7" s="7">
-        <v>754</v>
+        <v>721</v>
       </c>
       <c r="N7" s="7">
-        <v>547862</v>
+        <v>484159</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>120</v>
@@ -2671,43 +2671,43 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>626</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>1537</v>
+        <v>600</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
       </c>
       <c r="N8" s="7">
-        <v>1537</v>
+        <v>1226</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>17</v>
@@ -2722,10 +2722,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="D9" s="7">
-        <v>281629</v>
+        <v>250052</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -2737,10 +2737,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="I9" s="7">
-        <v>267770</v>
+        <v>235333</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -2752,10 +2752,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>756</v>
+        <v>723</v>
       </c>
       <c r="N9" s="7">
-        <v>549399</v>
+        <v>485385</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -2775,43 +2775,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="D10" s="7">
-        <v>249426</v>
+        <v>281629</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7">
+        <v>373</v>
+      </c>
+      <c r="I10" s="7">
+        <v>266233</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="7">
-        <v>359</v>
-      </c>
-      <c r="I10" s="7">
-        <v>234733</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>721</v>
+        <v>754</v>
       </c>
       <c r="N10" s="7">
-        <v>484159</v>
+        <v>547862</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>126</v>
@@ -2826,43 +2826,43 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>626</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>600</v>
+        <v>1537</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>1226</v>
+        <v>1537</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>17</v>
@@ -2877,10 +2877,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D12" s="7">
-        <v>250052</v>
+        <v>281629</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -2892,10 +2892,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="I12" s="7">
-        <v>235333</v>
+        <v>267770</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2907,10 +2907,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>723</v>
+        <v>756</v>
       </c>
       <c r="N12" s="7">
-        <v>485385</v>
+        <v>549399</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -2972,7 +2972,7 @@
         <v>135</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3020,7 +3020,7 @@
         <v>140</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>141</v>

--- a/data/trans_orig/IP1006-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1006-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D5C5681-49D3-456F-BEF1-CF0466E02012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2B563D8-739C-45C3-91A4-CB4CE046AD71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{64FC9A93-A48B-4658-9D49-0D0774AB0AEB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DF1B398B-1269-48BB-AA5D-38C6C3882067}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="174">
   <si>
     <t>Menores según si padecen cardiopatía congénita en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -67,7 +67,25 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
   </si>
   <si>
     <t>No</t>
@@ -76,394 +94,472 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen cardiopatía congénita en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
     <t>99,43%</t>
   </si>
   <si>
-    <t>100%</t>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen cardiopatía congénita en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
   </si>
   <si>
     <t>99,4%</t>
   </si>
   <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
   </si>
   <si>
     <t>99,88%</t>
   </si>
   <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen cardiopatía congénita en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen cardiopatía congénita en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
+    <t>99,35%</t>
   </si>
 </sst>
 </file>
@@ -474,7 +570,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -570,39 +666,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -654,7 +750,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -765,13 +861,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -780,6 +869,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -844,19 +940,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2BFB766-4EF5-4AB3-858B-1F636BDD2DF7}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF58921-9B38-4836-991C-F0F8427B96B0}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -973,10 +1089,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>223161</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -988,34 +1104,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>210196</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>654</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>433357</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1024,10 +1140,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>121380</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1039,34 +1155,34 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>106171</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>344</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>227551</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1075,49 +1191,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>334</v>
+        <v>182</v>
       </c>
       <c r="D6" s="7">
-        <v>223161</v>
+        <v>121380</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>320</v>
+        <v>162</v>
       </c>
       <c r="I6" s="7">
-        <v>210196</v>
+        <v>106171</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>654</v>
+        <v>344</v>
       </c>
       <c r="N6" s="7">
-        <v>433357</v>
+        <v>227551</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1128,49 +1244,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>329</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>217356</v>
+        <v>685</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1165</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="7">
-        <v>302</v>
-      </c>
-      <c r="I7" s="7">
-        <v>204057</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="M7" s="7">
-        <v>631</v>
+        <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>421413</v>
+        <v>1850</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1179,49 +1295,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>381</v>
       </c>
       <c r="D8" s="7">
-        <v>685</v>
+        <v>253071</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>377</v>
       </c>
       <c r="I8" s="7">
-        <v>1165</v>
+        <v>252040</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="M8" s="7">
-        <v>3</v>
+        <v>758</v>
       </c>
       <c r="N8" s="7">
-        <v>1850</v>
+        <v>505111</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1230,102 +1346,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>330</v>
+        <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>218041</v>
+        <v>253756</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>304</v>
+        <v>379</v>
       </c>
       <c r="I9" s="7">
-        <v>205222</v>
+        <v>253205</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>634</v>
+        <v>761</v>
       </c>
       <c r="N9" s="7">
-        <v>423263</v>
+        <v>506961</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>420</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>280083</v>
+        <v>720</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="7">
-        <v>392</v>
-      </c>
-      <c r="I10" s="7">
-        <v>264259</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="K10" s="7" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>720</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="7">
-        <v>812</v>
-      </c>
-      <c r="N10" s="7">
-        <v>544342</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1334,49 +1450,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>211</v>
       </c>
       <c r="D11" s="7">
-        <v>1415</v>
+        <v>140795</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>191</v>
+      </c>
+      <c r="I11" s="7">
+        <v>127548</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="7">
+        <v>402</v>
+      </c>
+      <c r="N11" s="7">
+        <v>268343</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="7">
-        <v>2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1344</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" s="7" t="s">
+      <c r="P11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="7">
-        <v>4</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2759</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1385,102 +1501,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>422</v>
+        <v>212</v>
       </c>
       <c r="D12" s="7">
-        <v>281498</v>
+        <v>141515</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>394</v>
+        <v>191</v>
       </c>
       <c r="I12" s="7">
-        <v>265603</v>
+        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>816</v>
+        <v>403</v>
       </c>
       <c r="N12" s="7">
-        <v>547101</v>
+        <v>269063</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1083</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>720600</v>
+        <v>695</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
-        <v>1014</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>678511</v>
+        <v>1344</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>50</v>
       </c>
       <c r="M13" s="7">
-        <v>2097</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>1399111</v>
+        <v>2039</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1489,49 +1605,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>309</v>
       </c>
       <c r="D14" s="7">
-        <v>2100</v>
+        <v>205354</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="7">
+        <v>284</v>
+      </c>
+      <c r="I14" s="7">
+        <v>192753</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="7">
-        <v>4</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2510</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="7">
+        <v>593</v>
+      </c>
+      <c r="N14" s="7">
+        <v>398107</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M14" s="7">
-        <v>7</v>
-      </c>
-      <c r="N14" s="7">
-        <v>4610</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1540,55 +1656,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>310</v>
+      </c>
+      <c r="D15" s="7">
+        <v>206049</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>286</v>
+      </c>
+      <c r="I15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>596</v>
+      </c>
+      <c r="N15" s="7">
+        <v>400146</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2100</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="7">
+        <v>4</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2510</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M16" s="7">
+        <v>7</v>
+      </c>
+      <c r="N16" s="7">
+        <v>4610</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1083</v>
+      </c>
+      <c r="D17" s="7">
+        <v>720600</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1014</v>
+      </c>
+      <c r="I17" s="7">
+        <v>678511</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2097</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1399111</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1086</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>722700</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1018</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>681021</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>2104</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1403721</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1601,8 +1878,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3EECA13-1CD5-42B7-97D9-F950EB81348B}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EAEB58-D311-4F1F-8B1E-3EA7C5080C92}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1618,7 +1895,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1719,25 +1996,25 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>333</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>235641</v>
+        <v>584</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="H4" s="7">
-        <v>337</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>224548</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -1746,22 +2023,22 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M4" s="7">
-        <v>670</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>460189</v>
+        <v>584</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1770,49 +2047,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>204</v>
       </c>
       <c r="D5" s="7">
-        <v>2047</v>
+        <v>143929</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>146281</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>3</v>
+        <v>422</v>
       </c>
       <c r="N5" s="7">
-        <v>2047</v>
+        <v>290210</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1821,49 +2098,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>336</v>
+        <v>205</v>
       </c>
       <c r="D6" s="7">
-        <v>237688</v>
+        <v>144513</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>337</v>
+        <v>218</v>
       </c>
       <c r="I6" s="7">
-        <v>224548</v>
+        <v>146281</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>673</v>
+        <v>423</v>
       </c>
       <c r="N6" s="7">
-        <v>462236</v>
+        <v>290794</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1874,49 +2151,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>330</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>238754</v>
+        <v>2810</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="7">
-        <v>318</v>
-      </c>
-      <c r="I7" s="7">
-        <v>227493</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>73</v>
-      </c>
       <c r="K7" s="7" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="M7" s="7">
-        <v>648</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>466247</v>
+        <v>2810</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1925,49 +2202,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>367</v>
       </c>
       <c r="D8" s="7">
-        <v>1346</v>
+        <v>264291</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="7">
+        <v>337</v>
+      </c>
+      <c r="I8" s="7">
+        <v>234476</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>685</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="K8" s="7" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>3</v>
+        <v>704</v>
       </c>
       <c r="N8" s="7">
-        <v>2031</v>
+        <v>498766</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1976,102 +2253,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="D9" s="7">
-        <v>240100</v>
+        <v>267101</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="I9" s="7">
-        <v>228178</v>
+        <v>234476</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>651</v>
+        <v>708</v>
       </c>
       <c r="N9" s="7">
-        <v>468278</v>
+        <v>501576</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>267859</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="H10" s="7">
-        <v>361</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>253541</v>
+        <v>685</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>685</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="7">
-        <v>756</v>
-      </c>
-      <c r="N10" s="7">
-        <v>521400</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>87</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2080,49 +2357,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>228</v>
       </c>
       <c r="D11" s="7">
-        <v>2495</v>
+        <v>158571</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>219</v>
       </c>
       <c r="I11" s="7">
-        <v>661</v>
+        <v>154149</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="M11" s="7">
-        <v>4</v>
+        <v>447</v>
       </c>
       <c r="N11" s="7">
-        <v>3156</v>
+        <v>312720</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2131,102 +2408,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>398</v>
+        <v>228</v>
       </c>
       <c r="D12" s="7">
-        <v>270354</v>
+        <v>158571</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>362</v>
+        <v>220</v>
       </c>
       <c r="I12" s="7">
-        <v>254202</v>
+        <v>154834</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>760</v>
+        <v>448</v>
       </c>
       <c r="N12" s="7">
-        <v>524556</v>
+        <v>313405</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1058</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>742253</v>
+        <v>2495</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="H13" s="7">
-        <v>1016</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>705582</v>
+        <v>661</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="M13" s="7">
-        <v>2074</v>
+        <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>1447836</v>
+        <v>3156</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2235,49 +2512,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>8</v>
+        <v>259</v>
       </c>
       <c r="D14" s="7">
-        <v>5889</v>
+        <v>175462</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>242</v>
       </c>
       <c r="I14" s="7">
-        <v>1346</v>
+        <v>170676</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="M14" s="7">
-        <v>10</v>
+        <v>501</v>
       </c>
       <c r="N14" s="7">
-        <v>7234</v>
+        <v>346138</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2286,55 +2563,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>262</v>
+      </c>
+      <c r="D15" s="7">
+        <v>177957</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>243</v>
+      </c>
+      <c r="I15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>505</v>
+      </c>
+      <c r="N15" s="7">
+        <v>349294</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>8</v>
+      </c>
+      <c r="D16" s="7">
+        <v>5889</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1346</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M16" s="7">
+        <v>10</v>
+      </c>
+      <c r="N16" s="7">
+        <v>7234</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1058</v>
+      </c>
+      <c r="D17" s="7">
+        <v>742253</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1016</v>
+      </c>
+      <c r="I17" s="7">
+        <v>705582</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2074</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1447836</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1066</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>748142</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1018</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>706928</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>2084</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1455070</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2347,8 +2785,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2324EF-8C6B-40E5-BB5B-26E46F825328}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59613A9-FD94-4BA9-80CE-79D846C6DBE6}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2364,7 +2802,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2465,49 +2903,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>319</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>211790</v>
+        <v>740</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>740</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="7">
-        <v>325</v>
-      </c>
-      <c r="I4" s="7">
-        <v>200732</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="7">
-        <v>644</v>
-      </c>
-      <c r="N4" s="7">
-        <v>412522</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2516,49 +2954,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>186</v>
       </c>
       <c r="D5" s="7">
-        <v>1373</v>
+        <v>123424</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>211</v>
+      </c>
+      <c r="I5" s="7">
+        <v>131654</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="7">
+        <v>397</v>
+      </c>
+      <c r="N5" s="7">
+        <v>255078</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>536</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="M5" s="7">
-        <v>3</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1909</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2567,49 +3005,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>321</v>
+        <v>187</v>
       </c>
       <c r="D6" s="7">
-        <v>213163</v>
+        <v>124164</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>326</v>
+        <v>211</v>
       </c>
       <c r="I6" s="7">
-        <v>201268</v>
+        <v>131654</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>647</v>
+        <v>398</v>
       </c>
       <c r="N6" s="7">
-        <v>414431</v>
+        <v>255818</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2620,49 +3058,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>362</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>249426</v>
+        <v>1259</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>536</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="7">
-        <v>359</v>
-      </c>
-      <c r="I7" s="7">
-        <v>234733</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>119</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="M7" s="7">
-        <v>721</v>
+        <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>484159</v>
+        <v>1795</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2671,49 +3109,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>378</v>
       </c>
       <c r="D8" s="7">
-        <v>626</v>
+        <v>256802</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>121</v>
-      </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>331</v>
       </c>
       <c r="I8" s="7">
-        <v>600</v>
+        <v>209981</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>122</v>
-      </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>709</v>
       </c>
       <c r="N8" s="7">
-        <v>1226</v>
+        <v>466783</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>93</v>
+        <v>146</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2722,102 +3160,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="D9" s="7">
-        <v>250052</v>
+        <v>258061</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="I9" s="7">
-        <v>235333</v>
+        <v>210517</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="N9" s="7">
-        <v>485385</v>
+        <v>468578</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>381</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>281629</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="H10" s="7">
-        <v>373</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>266233</v>
+        <v>600</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>124</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>600</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="7">
-        <v>754</v>
-      </c>
-      <c r="N10" s="7">
-        <v>547862</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>126</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2826,49 +3264,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>188572</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>271</v>
       </c>
       <c r="I11" s="7">
-        <v>1537</v>
+        <v>188299</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>127</v>
-      </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>534</v>
       </c>
       <c r="N11" s="7">
-        <v>1537</v>
+        <v>376871</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2877,102 +3315,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>381</v>
+        <v>263</v>
       </c>
       <c r="D12" s="7">
-        <v>281629</v>
+        <v>188572</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>375</v>
+        <v>272</v>
       </c>
       <c r="I12" s="7">
-        <v>267770</v>
+        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>756</v>
+        <v>535</v>
       </c>
       <c r="N12" s="7">
-        <v>549399</v>
+        <v>377471</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1062</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>742845</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>108</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="H13" s="7">
-        <v>1057</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>701698</v>
+        <v>1537</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>47</v>
+        <v>158</v>
       </c>
       <c r="M13" s="7">
-        <v>2119</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>1444543</v>
+        <v>1537</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>40</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,49 +3419,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>235</v>
       </c>
       <c r="D14" s="7">
-        <v>1999</v>
+        <v>174048</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>4</v>
+        <v>244</v>
       </c>
       <c r="I14" s="7">
-        <v>2673</v>
+        <v>171764</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>139</v>
+        <v>17</v>
       </c>
       <c r="M14" s="7">
-        <v>7</v>
+        <v>479</v>
       </c>
       <c r="N14" s="7">
-        <v>4672</v>
+        <v>345811</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,55 +3470,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>235</v>
+      </c>
+      <c r="D15" s="7">
+        <v>174048</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>246</v>
+      </c>
+      <c r="I15" s="7">
+        <v>173301</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>481</v>
+      </c>
+      <c r="N15" s="7">
+        <v>347348</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1999</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H16" s="7">
+        <v>4</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2673</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="M16" s="7">
+        <v>7</v>
+      </c>
+      <c r="N16" s="7">
+        <v>4672</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1062</v>
+      </c>
+      <c r="D17" s="7">
+        <v>742845</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1057</v>
+      </c>
+      <c r="I17" s="7">
+        <v>701698</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2119</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1444543</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1065</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>744844</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1061</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>704371</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>2126</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1449215</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP1006-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1006-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2B563D8-739C-45C3-91A4-CB4CE046AD71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC1BFB80-3387-48CB-80DD-F750E62173CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DF1B398B-1269-48BB-AA5D-38C6C3882067}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1E11AC0F-4090-49E1-8086-86BCBF4B889A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="168">
   <si>
     <t>Menores según si padecen cardiopatía congénita en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -112,13 +112,13 @@
     <t>0,27%</t>
   </si>
   <si>
-    <t>1,36%</t>
+    <t>1,35%</t>
   </si>
   <si>
     <t>0,46%</t>
   </si>
   <si>
-    <t>1,62%</t>
+    <t>1,78%</t>
   </si>
   <si>
     <t>0,37%</t>
@@ -127,25 +127,25 @@
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,95%</t>
+    <t>1,08%</t>
   </si>
   <si>
     <t>99,73%</t>
   </si>
   <si>
-    <t>98,64%</t>
+    <t>98,65%</t>
   </si>
   <si>
     <t>99,54%</t>
   </si>
   <si>
-    <t>98,38%</t>
+    <t>98,22%</t>
   </si>
   <si>
     <t>99,63%</t>
   </si>
   <si>
-    <t>99,05%</t>
+    <t>98,92%</t>
   </si>
   <si>
     <t>99,9%</t>
@@ -157,25 +157,25 @@
     <t>0,51%</t>
   </si>
   <si>
-    <t>3,04%</t>
+    <t>3,05%</t>
   </si>
   <si>
     <t>1,0%</t>
   </si>
   <si>
-    <t>1,35%</t>
+    <t>1,5%</t>
   </si>
   <si>
     <t>99,49%</t>
   </si>
   <si>
-    <t>96,96%</t>
+    <t>96,95%</t>
   </si>
   <si>
     <t>99,0%</t>
   </si>
   <si>
-    <t>98,65%</t>
+    <t>98,5%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -184,31 +184,37 @@
     <t>0,34%</t>
   </si>
   <si>
-    <t>1,91%</t>
+    <t>1,79%</t>
   </si>
   <si>
     <t>0,69%</t>
   </si>
   <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
   </si>
   <si>
     <t>99,66%</t>
   </si>
   <si>
-    <t>98,09%</t>
+    <t>98,21%</t>
   </si>
   <si>
     <t>99,31%</t>
   </si>
   <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
   </si>
   <si>
     <t>0,29%</t>
@@ -220,7 +226,7 @@
     <t>0,78%</t>
   </si>
   <si>
-    <t>0,93%</t>
+    <t>0,91%</t>
   </si>
   <si>
     <t>0,33%</t>
@@ -229,7 +235,7 @@
     <t>0,14%</t>
   </si>
   <si>
-    <t>0,63%</t>
+    <t>0,7%</t>
   </si>
   <si>
     <t>99,71%</t>
@@ -241,13 +247,13 @@
     <t>99,91%</t>
   </si>
   <si>
-    <t>99,07%</t>
+    <t>99,09%</t>
   </si>
   <si>
     <t>99,67%</t>
   </si>
   <si>
-    <t>99,37%</t>
+    <t>99,3%</t>
   </si>
   <si>
     <t>99,86%</t>
@@ -262,7 +268,7 @@
     <t>0,4%</t>
   </si>
   <si>
-    <t>2,03%</t>
+    <t>2,02%</t>
   </si>
   <si>
     <t>0,88%</t>
@@ -271,13 +277,10 @@
     <t>0,2%</t>
   </si>
   <si>
-    <t>1,02%</t>
-  </si>
-  <si>
     <t>99,6%</t>
   </si>
   <si>
-    <t>97,97%</t>
+    <t>97,98%</t>
   </si>
   <si>
     <t>99,12%</t>
@@ -286,25 +289,19 @@
     <t>99,8%</t>
   </si>
   <si>
-    <t>98,98%</t>
-  </si>
-  <si>
     <t>0,26%</t>
   </si>
   <si>
-    <t>2,62%</t>
+    <t>2,6%</t>
   </si>
   <si>
     <t>0,57%</t>
   </si>
   <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
   </si>
   <si>
     <t>99,74%</t>
@@ -313,10 +310,7 @@
     <t>99,43%</t>
   </si>
   <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
+    <t>98,69%</t>
   </si>
   <si>
     <t>0,84%</t>
@@ -325,13 +319,13 @@
     <t>0,44%</t>
   </si>
   <si>
-    <t>2,29%</t>
+    <t>2,2%</t>
   </si>
   <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>1,1%</t>
+    <t>1,21%</t>
   </si>
   <si>
     <t>99,16%</t>
@@ -340,124 +334,130 @@
     <t>99,56%</t>
   </si>
   <si>
-    <t>97,71%</t>
+    <t>97,8%</t>
   </si>
   <si>
     <t>99,78%</t>
   </si>
   <si>
-    <t>98,9%</t>
+    <t>98,79%</t>
   </si>
   <si>
     <t>1,4%</t>
   </si>
   <si>
-    <t>4,0%</t>
+    <t>3,91%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>1,95%</t>
+    <t>1,98%</t>
   </si>
   <si>
     <t>0,9%</t>
   </si>
   <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
     <t>0,19%</t>
   </si>
   <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
   </si>
   <si>
     <t>99,81%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
+    <t>99,34%</t>
   </si>
   <si>
     <t>99,5%</t>
   </si>
   <si>
+    <t>99,11%</t>
+  </si>
+  <si>
     <t>99,77%</t>
   </si>
   <si>
-    <t>Menores según si padecen cardiopatía congénita en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Menores según si padecen cardiopatía congénita en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
   </si>
   <si>
     <t>99,4%</t>
   </si>
   <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
   </si>
   <si>
     <t>0,49%</t>
   </si>
   <si>
-    <t>1,47%</t>
+    <t>1,53%</t>
   </si>
   <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>1,04%</t>
+    <t>1,59%</t>
   </si>
   <si>
     <t>0,38%</t>
@@ -466,21 +466,27 @@
     <t>0,11%</t>
   </si>
   <si>
+    <t>1,11%</t>
+  </si>
+  <si>
     <t>99,51%</t>
   </si>
   <si>
-    <t>98,53%</t>
+    <t>98,47%</t>
   </si>
   <si>
     <t>99,75%</t>
   </si>
   <si>
-    <t>98,96%</t>
+    <t>98,41%</t>
   </si>
   <si>
     <t>99,62%</t>
   </si>
   <si>
+    <t>98,89%</t>
+  </si>
+  <si>
     <t>99,89%</t>
   </si>
   <si>
@@ -490,10 +496,10 @@
     <t>0,32%</t>
   </si>
   <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
   </si>
   <si>
     <t>99,27%</t>
@@ -502,64 +508,40 @@
     <t>99,68%</t>
   </si>
   <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
   </si>
   <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
   </si>
   <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
   </si>
   <si>
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
+    <t>0,64%</t>
   </si>
   <si>
     <t>99,92%</t>
   </si>
   <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
+    <t>99,36%</t>
   </si>
 </sst>
 </file>
@@ -971,7 +953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF58921-9B38-4836-991C-F0F8427B96B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7614849F-03A9-4AFB-8B40-850D7500DBB5}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1596,7 +1578,7 @@
         <v>51</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1611,10 +1593,10 @@
         <v>205354</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -1626,10 +1608,10 @@
         <v>192753</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>17</v>
@@ -1644,10 +1626,10 @@
         <v>42</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1715,13 +1697,13 @@
         <v>2100</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -1733,10 +1715,10 @@
         <v>27</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -1745,13 +1727,13 @@
         <v>4610</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1766,13 +1748,13 @@
         <v>720600</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H17" s="7">
         <v>1014</v>
@@ -1784,10 +1766,10 @@
         <v>34</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="M17" s="7">
         <v>2097</v>
@@ -1796,13 +1778,13 @@
         <v>1399111</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1858,7 +1840,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1878,7 +1860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EAEB58-D311-4F1F-8B1E-3EA7C5080C92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECBA356-CC44-450D-83DA-EDA992325D9B}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1895,7 +1877,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2002,13 +1984,13 @@
         <v>584</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2023,7 +2005,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -2032,13 +2014,13 @@
         <v>584</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2053,10 +2035,10 @@
         <v>143929</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
@@ -2071,7 +2053,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2083,10 +2065,10 @@
         <v>290210</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -2190,10 +2172,10 @@
         <v>15</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2211,10 +2193,10 @@
         <v>18</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H8" s="7">
         <v>337</v>
@@ -2226,7 +2208,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -2241,10 +2223,10 @@
         <v>21</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2318,7 +2300,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2327,13 +2309,13 @@
         <v>685</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -2342,13 +2324,13 @@
         <v>685</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2366,7 +2348,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -2378,10 +2360,10 @@
         <v>154149</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>17</v>
@@ -2393,10 +2375,10 @@
         <v>312720</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -2467,13 +2449,13 @@
         <v>2495</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2482,13 +2464,13 @@
         <v>661</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -2497,13 +2479,13 @@
         <v>3156</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2518,10 +2500,10 @@
         <v>175462</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>34</v>
@@ -2533,10 +2515,10 @@
         <v>170676</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>17</v>
@@ -2548,13 +2530,13 @@
         <v>346138</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2622,13 +2604,13 @@
         <v>5889</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -2637,13 +2619,13 @@
         <v>1346</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -2652,13 +2634,13 @@
         <v>7234</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2673,13 +2655,13 @@
         <v>742253</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H17" s="7">
         <v>1016</v>
@@ -2688,10 +2670,10 @@
         <v>705582</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -2703,10 +2685,10 @@
         <v>1447836</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>128</v>
@@ -2765,7 +2747,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2785,7 +2767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59613A9-FD94-4BA9-80CE-79D846C6DBE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BDA9521-510D-41B7-AA1D-74E10ECF685F}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2930,7 +2912,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -2939,13 +2921,13 @@
         <v>740</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2978,7 +2960,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2990,10 +2972,10 @@
         <v>255078</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -3100,7 +3082,7 @@
         <v>141</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3115,10 +3097,10 @@
         <v>256802</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -3130,10 +3112,10 @@
         <v>209981</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -3145,13 +3127,13 @@
         <v>466783</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3225,7 +3207,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3234,13 +3216,13 @@
         <v>600</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -3249,13 +3231,13 @@
         <v>600</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3273,7 +3255,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -3285,10 +3267,10 @@
         <v>188299</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>17</v>
@@ -3300,10 +3282,10 @@
         <v>376871</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>155</v>
+        <v>58</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -3380,7 +3362,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3389,13 +3371,13 @@
         <v>1537</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -3404,13 +3386,13 @@
         <v>1537</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3428,7 +3410,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -3440,7 +3422,7 @@
         <v>171764</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>162</v>
@@ -3455,7 +3437,7 @@
         <v>345811</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>163</v>
@@ -3535,7 +3517,7 @@
         <v>164</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>165</v>
+        <v>61</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -3547,10 +3529,10 @@
         <v>140</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>166</v>
+        <v>60</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -3559,13 +3541,13 @@
         <v>4672</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3583,10 +3565,10 @@
         <v>30</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>169</v>
+        <v>67</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H17" s="7">
         <v>1057</v>
@@ -3595,13 +3577,13 @@
         <v>701698</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>172</v>
+        <v>68</v>
       </c>
       <c r="M17" s="7">
         <v>2119</v>
@@ -3610,13 +3592,13 @@
         <v>1444543</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3672,7 +3654,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1006-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1006-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC1BFB80-3387-48CB-80DD-F750E62173CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6E11F7A-A83C-456D-A27D-DD24DCEC168F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1E11AC0F-4090-49E1-8086-86BCBF4B889A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{143FDB41-6A4B-4F9E-99E1-3EA660146301}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="170">
   <si>
     <t>Menores según si padecen cardiopatía congénita en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -79,12 +79,12 @@
     <t>0%</t>
   </si>
   <si>
+    <t>1,18%</t>
+  </si>
+  <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
     <t>0,56%</t>
   </si>
   <si>
@@ -94,454 +94,460 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>98,95%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
     <t>99,44%</t>
   </si>
   <si>
     <t>3-7</t>
   </si>
   <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
     <t>0,27%</t>
   </si>
   <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
     <t>1,35%</t>
   </si>
   <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
   </si>
   <si>
     <t>98,65%</t>
   </si>
   <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen cardiopatía congénita en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen cardiopatía congénita en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
   </si>
   <si>
     <t>1,5%</t>
   </si>
   <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
   </si>
   <si>
     <t>98,5%</t>
   </si>
   <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen cardiopatía congénita en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen cardiopatía congénita en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
+    <t>0,98%</t>
   </si>
   <si>
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,64%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
   </si>
   <si>
     <t>99,92%</t>
   </si>
   <si>
-    <t>99,36%</t>
+    <t>99,37%</t>
   </si>
 </sst>
 </file>
@@ -953,7 +959,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7614849F-03A9-4AFB-8B40-850D7500DBB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2609318-E0BE-44EA-A450-DAE2555DCA10}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1122,10 +1128,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="D5" s="7">
-        <v>121380</v>
+        <v>106171</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1137,10 +1143,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="I5" s="7">
-        <v>106171</v>
+        <v>121380</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -1173,25 +1179,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>162</v>
+      </c>
+      <c r="D6" s="7">
+        <v>106171</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>182</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>121380</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>162</v>
-      </c>
-      <c r="I6" s="7">
-        <v>106171</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1226,10 +1232,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>685</v>
+        <v>1165</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
@@ -1241,10 +1247,10 @@
         <v>24</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>1165</v>
+        <v>685</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>25</v>
@@ -1277,10 +1283,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D8" s="7">
-        <v>253071</v>
+        <v>252040</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>30</v>
@@ -1292,10 +1298,10 @@
         <v>17</v>
       </c>
       <c r="H8" s="7">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="I8" s="7">
-        <v>252040</v>
+        <v>253071</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>32</v>
@@ -1328,25 +1334,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>379</v>
+      </c>
+      <c r="D9" s="7">
+        <v>253205</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>382</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>253756</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>379</v>
-      </c>
-      <c r="I9" s="7">
-        <v>253205</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1381,31 +1387,31 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>720</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>40</v>
@@ -1417,7 +1423,7 @@
         <v>720</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
@@ -1432,34 +1438,34 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>191</v>
+      </c>
+      <c r="D11" s="7">
+        <v>127548</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7">
         <v>211</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>140795</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="7">
-        <v>191</v>
-      </c>
-      <c r="I11" s="7">
-        <v>127548</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>44</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M11" s="7">
         <v>402</v>
@@ -1468,7 +1474,7 @@
         <v>268343</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>45</v>
@@ -1483,25 +1489,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>191</v>
+      </c>
+      <c r="D12" s="7">
+        <v>127548</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>212</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>141515</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>191</v>
-      </c>
-      <c r="I12" s="7">
-        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1536,10 +1542,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>695</v>
+        <v>1344</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>47</v>
@@ -1551,10 +1557,10 @@
         <v>48</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>1344</v>
+        <v>695</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>49</v>
@@ -1572,7 +1578,7 @@
         <v>2039</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>51</v>
@@ -1587,10 +1593,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="D14" s="7">
-        <v>205354</v>
+        <v>192753</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>53</v>
@@ -1602,10 +1608,10 @@
         <v>17</v>
       </c>
       <c r="H14" s="7">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="I14" s="7">
-        <v>192753</v>
+        <v>205354</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>55</v>
@@ -1623,7 +1629,7 @@
         <v>398107</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>57</v>
@@ -1638,25 +1644,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>286</v>
+      </c>
+      <c r="D15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>310</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>206049</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>286</v>
-      </c>
-      <c r="I15" s="7">
-        <v>194097</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1691,31 +1697,31 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>4</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2510</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="7">
         <v>3</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>2100</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="H16" s="7">
-        <v>4</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2510</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>62</v>
@@ -1742,34 +1748,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>1014</v>
+      </c>
+      <c r="D17" s="7">
+        <v>678511</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="7">
         <v>1083</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>720600</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="H17" s="7">
-        <v>1014</v>
-      </c>
-      <c r="I17" s="7">
-        <v>678511</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M17" s="7">
         <v>2097</v>
@@ -1793,25 +1799,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1018</v>
+      </c>
+      <c r="D18" s="7">
+        <v>681021</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1086</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>722700</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>681021</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -1860,7 +1866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECBA356-CC44-450D-83DA-EDA992325D9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B9BD45-EC03-4CE4-8ED9-7DBB77252AF7}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1978,31 +1984,31 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>584</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="J4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>77</v>
@@ -2020,7 +2026,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2029,34 +2035,34 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="D5" s="7">
-        <v>143929</v>
+        <v>146281</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>80</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>204</v>
+      </c>
+      <c r="I5" s="7">
+        <v>143929</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="H5" s="7">
-        <v>218</v>
-      </c>
-      <c r="I5" s="7">
-        <v>146281</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="M5" s="7">
         <v>422</v>
@@ -2065,10 +2071,10 @@
         <v>290210</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -2080,25 +2086,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>218</v>
+      </c>
+      <c r="D6" s="7">
+        <v>146281</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>205</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>144513</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>218</v>
-      </c>
-      <c r="I6" s="7">
-        <v>146281</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2133,34 +2139,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" s="7">
         <v>4</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>2810</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -2172,10 +2178,10 @@
         <v>15</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2184,34 +2190,34 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>337</v>
+      </c>
+      <c r="D8" s="7">
+        <v>234476</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="7">
         <v>367</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>264291</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H8" s="7">
-        <v>337</v>
-      </c>
-      <c r="I8" s="7">
-        <v>234476</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="M8" s="7">
         <v>704</v>
@@ -2223,10 +2229,10 @@
         <v>21</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2235,25 +2241,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>337</v>
+      </c>
+      <c r="D9" s="7">
+        <v>234476</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>371</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>267101</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>337</v>
-      </c>
-      <c r="I9" s="7">
-        <v>234476</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -2288,34 +2294,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>685</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>0</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>685</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -2324,13 +2330,13 @@
         <v>685</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2339,34 +2345,34 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>219</v>
+      </c>
+      <c r="D11" s="7">
+        <v>154149</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="7">
         <v>228</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>158571</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="7">
-        <v>219</v>
-      </c>
-      <c r="I11" s="7">
-        <v>154149</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="K11" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
         <v>447</v>
@@ -2375,10 +2381,10 @@
         <v>312720</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -2390,25 +2396,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>220</v>
+      </c>
+      <c r="D12" s="7">
+        <v>154834</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>228</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>158571</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>220</v>
-      </c>
-      <c r="I12" s="7">
-        <v>154834</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2443,34 +2449,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>661</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" s="7">
         <v>3</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>2495</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="J13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>661</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -2479,13 +2485,13 @@
         <v>3156</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2494,34 +2500,34 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>242</v>
+      </c>
+      <c r="D14" s="7">
+        <v>170676</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="7">
         <v>259</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>175462</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="J14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="H14" s="7">
-        <v>242</v>
-      </c>
-      <c r="I14" s="7">
-        <v>170676</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="M14" s="7">
         <v>501</v>
@@ -2530,13 +2536,13 @@
         <v>346138</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2545,25 +2551,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>243</v>
+      </c>
+      <c r="D15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>262</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>177957</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>243</v>
-      </c>
-      <c r="I15" s="7">
-        <v>171337</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2598,34 +2604,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>2</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1346</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16" s="7">
         <v>8</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>5889</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H16" s="7">
-        <v>2</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1346</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -2634,13 +2640,13 @@
         <v>7234</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2649,25 +2655,25 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>1016</v>
+      </c>
+      <c r="D17" s="7">
+        <v>705582</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="7">
         <v>1058</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>742253</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1016</v>
-      </c>
-      <c r="I17" s="7">
-        <v>705582</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>124</v>
@@ -2676,7 +2682,7 @@
         <v>125</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="M17" s="7">
         <v>2074</v>
@@ -2700,25 +2706,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1018</v>
+      </c>
+      <c r="D18" s="7">
+        <v>706928</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1066</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>748142</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>706928</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -2767,7 +2773,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BDA9521-510D-41B7-AA1D-74E10ECF685F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA74EC9-7CD2-465B-9D4C-333B785FFC3C}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2885,34 +2891,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>740</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="J4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -2921,13 +2927,13 @@
         <v>740</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2936,34 +2942,34 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D5" s="7">
-        <v>123424</v>
+        <v>131654</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>134</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>186</v>
+      </c>
+      <c r="I5" s="7">
+        <v>123424</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="H5" s="7">
-        <v>211</v>
-      </c>
-      <c r="I5" s="7">
-        <v>131654</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="M5" s="7">
         <v>397</v>
@@ -2972,10 +2978,10 @@
         <v>255078</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -2987,25 +2993,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>211</v>
+      </c>
+      <c r="D6" s="7">
+        <v>131654</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>187</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>124164</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>211</v>
-      </c>
-      <c r="I6" s="7">
-        <v>131654</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3040,34 +3046,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>1259</v>
+        <v>536</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>536</v>
+        <v>1259</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -3076,13 +3082,13 @@
         <v>1795</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,13 +3097,13 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>378</v>
+        <v>331</v>
       </c>
       <c r="D8" s="7">
-        <v>256802</v>
+        <v>209981</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>143</v>
+        <v>92</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>144</v>
@@ -3106,10 +3112,10 @@
         <v>17</v>
       </c>
       <c r="H8" s="7">
-        <v>331</v>
+        <v>378</v>
       </c>
       <c r="I8" s="7">
-        <v>209981</v>
+        <v>256802</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>145</v>
@@ -3142,25 +3148,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>332</v>
+      </c>
+      <c r="D9" s="7">
+        <v>210517</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>380</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>258061</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>332</v>
-      </c>
-      <c r="I9" s="7">
-        <v>210517</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3195,31 +3201,31 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>600</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>0</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>600</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>152</v>
@@ -3237,7 +3243,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3246,34 +3252,34 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="D11" s="7">
-        <v>188572</v>
+        <v>188299</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>153</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H11" s="7">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="I11" s="7">
-        <v>188299</v>
+        <v>188572</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>156</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
         <v>534</v>
@@ -3285,7 +3291,7 @@
         <v>58</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -3297,25 +3303,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>272</v>
+      </c>
+      <c r="D12" s="7">
+        <v>188899</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>263</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>188572</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>272</v>
-      </c>
-      <c r="I12" s="7">
-        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3350,34 +3356,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1537</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H13" s="7">
         <v>0</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>0</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="H13" s="7">
-        <v>2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1537</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -3386,13 +3392,13 @@
         <v>1537</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,34 +3407,34 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>244</v>
+      </c>
+      <c r="D14" s="7">
+        <v>171764</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="7">
         <v>235</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>174048</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="7">
-        <v>244</v>
-      </c>
-      <c r="I14" s="7">
-        <v>171764</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>127</v>
-      </c>
       <c r="K14" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
         <v>479</v>
@@ -3437,10 +3443,10 @@
         <v>345811</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -3452,25 +3458,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>246</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173301</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>235</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>174048</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>246</v>
-      </c>
-      <c r="I15" s="7">
-        <v>173301</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3505,34 +3511,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>4</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2673</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H16" s="7">
         <v>3</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>1999</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="J16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H16" s="7">
-        <v>4</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2673</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -3541,10 +3547,10 @@
         <v>4672</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>165</v>
@@ -3556,34 +3562,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>1057</v>
+      </c>
+      <c r="D17" s="7">
+        <v>701698</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="7">
         <v>1062</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>742845</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1057</v>
-      </c>
-      <c r="I17" s="7">
-        <v>701698</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>68</v>
+        <v>168</v>
       </c>
       <c r="M17" s="7">
         <v>2119</v>
@@ -3592,13 +3598,13 @@
         <v>1444543</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3607,25 +3613,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1061</v>
+      </c>
+      <c r="D18" s="7">
+        <v>704371</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1065</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>744844</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I18" s="7">
-        <v>704371</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
